--- a/output/综合评价.xlsx
+++ b/output/综合评价.xlsx
@@ -471,19 +471,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9044504517439491</v>
+        <v>0.8758444413927924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9126521974559163</v>
+        <v>0.8455553708853575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9064416039529439</v>
+        <v>0.8870929396859164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9413664983242491</v>
+        <v>0.9552520654109067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9590735965189146</v>
+        <v>0.9583125323725072</v>
       </c>
     </row>
     <row r="3">
@@ -493,63 +493,63 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9637744014287069</v>
+        <v>0.968134313918855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9466055847366832</v>
+        <v>0.9470302009441318</v>
       </c>
       <c r="D3" t="n">
-        <v>0.914347145688813</v>
+        <v>0.9117814544791878</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9192867504051923</v>
+        <v>0.9170463156177653</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9079553706171184</v>
+        <v>0.9064469225587466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7802116459909478</v>
+        <v>0.671565164255381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7134893819210618</v>
+        <v>0.668140543897531</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6165423425254244</v>
+        <v>0.687830375313266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.621926982855978</v>
+        <v>0.7383795185373678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6996926516195072</v>
+        <v>0.7133459148523005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6800033213295238</v>
+        <v>0.7061515086562709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6817595384614552</v>
+        <v>0.6402759309262802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6966053454967629</v>
+        <v>0.5721662088516716</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7043872845534962</v>
+        <v>0.5924909338296429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6946403831915684</v>
+        <v>0.6535954823742515</v>
       </c>
     </row>
     <row r="6">
@@ -559,63 +559,63 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5057100201922117</v>
+        <v>0.5332923788903092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5094821939401162</v>
+        <v>0.5140592424757651</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4918664964886427</v>
+        <v>0.5153636991667365</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5068316935420867</v>
+        <v>0.543070114389177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4452524717829019</v>
+        <v>0.4719117152414478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3325045023545465</v>
+        <v>0.3364794500771792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3465860861956178</v>
+        <v>0.3453968629345839</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3529748114345892</v>
+        <v>0.3733553451592742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3946008279236058</v>
+        <v>0.3803941381471715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4251828803325562</v>
+        <v>0.4446141815621706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3317559940277794</v>
+        <v>0.3431727908686925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3601850072677295</v>
+        <v>0.3399134533166835</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3526895362812852</v>
+        <v>0.3553267453979712</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3540751086597641</v>
+        <v>0.4128026777061091</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4005642876659172</v>
+        <v>0.4418948242090646</v>
       </c>
     </row>
     <row r="9">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3533097981536326</v>
+        <v>0.3356132545086541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3588144527813291</v>
+        <v>0.3207292990733283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3528800614029703</v>
+        <v>0.3428706959822625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3353486805819643</v>
+        <v>0.3195628118855904</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3454894542911082</v>
+        <v>0.3103079027830779</v>
       </c>
     </row>
     <row r="10">
@@ -647,107 +647,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2871929438260059</v>
+        <v>0.308331743138451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3092838057395868</v>
+        <v>0.3243121973020955</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3341980961947557</v>
+        <v>0.3514805923661018</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3275496792763768</v>
+        <v>0.3533015709493947</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3044938649352636</v>
+        <v>0.2953244276407537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1681213217660317</v>
+        <v>0.2156478840735271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1553170300038042</v>
+        <v>0.1841520567129986</v>
       </c>
       <c r="D11" t="n">
-        <v>0.156644806825668</v>
+        <v>0.201169498128885</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1631707684002633</v>
+        <v>0.2522632101808939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2458288741391051</v>
+        <v>0.2879939523388987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1819198652842383</v>
+        <v>0.2445561917346868</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1682837310628793</v>
+        <v>0.2685245878666052</v>
       </c>
       <c r="D12" t="n">
-        <v>0.175785875990416</v>
+        <v>0.2439502505309879</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1881519830519248</v>
+        <v>0.2294773081468442</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2372094932725195</v>
+        <v>0.2616282538223311</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.215434492040103</v>
+        <v>0.3019250984348467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2395181921477558</v>
+        <v>0.3089697115716316</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2052813454033716</v>
+        <v>0.2871739409497431</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1995574112170896</v>
+        <v>0.2370761068170906</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2309638065693495</v>
+        <v>0.2571707826070889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2711710099278332</v>
+        <v>0.1843671318669196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2917049298725155</v>
+        <v>0.1601339129319407</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2705078480751643</v>
+        <v>0.1731436552591085</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2147762565072487</v>
+        <v>0.1880837299925241</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2278354762544375</v>
+        <v>0.2553055181253642</v>
       </c>
     </row>
     <row r="15">
@@ -757,19 +757,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.166829790321973</v>
+        <v>0.1936261257789239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1724251055434442</v>
+        <v>0.1992957010784909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1893790921765017</v>
+        <v>0.2096070045558261</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2027362516256311</v>
+        <v>0.2228841142473809</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2173021401712649</v>
+        <v>0.2317428376370068</v>
       </c>
     </row>
     <row r="16">
@@ -779,19 +779,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08834064515429231</v>
+        <v>0.08919384818021737</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1270189765044706</v>
+        <v>0.1142373447711585</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09080462827154198</v>
+        <v>0.09287567602196854</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09719378083903882</v>
+        <v>0.111283098476498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1912953157526593</v>
+        <v>0.2051384130243492</v>
       </c>
     </row>
     <row r="17">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1755527501078821</v>
+        <v>0.1774165373629927</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1751572431900877</v>
+        <v>0.1590472994436686</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1768652120884359</v>
+        <v>0.1790504584397928</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1774004210455577</v>
+        <v>0.1746558100962517</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1872166142651003</v>
+        <v>0.1936639155103612</v>
       </c>
     </row>
     <row r="18">
@@ -823,19 +823,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1889550792895536</v>
+        <v>0.1859480703424466</v>
       </c>
       <c r="C18" t="n">
-        <v>0.183464545780664</v>
+        <v>0.157467667196572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1705191550004262</v>
+        <v>0.1703106257088099</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1626077854022138</v>
+        <v>0.172870425729396</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1855500265484324</v>
+        <v>0.192819676319759</v>
       </c>
     </row>
     <row r="19">
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1378323363408284</v>
+        <v>0.1466032345248207</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1734687030047363</v>
+        <v>0.1575662942182167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1773908733450708</v>
+        <v>0.1838866863930605</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2304010196433939</v>
+        <v>0.236869978441539</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1631403044734399</v>
+        <v>0.1849829782834481</v>
       </c>
     </row>
     <row r="20">
@@ -867,85 +867,85 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1141235694339782</v>
+        <v>0.09421173785769099</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1133364128308354</v>
+        <v>0.08126036013826719</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1368456146778925</v>
+        <v>0.1147038397812822</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1339139052420213</v>
+        <v>0.1098049125655607</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1140669462001567</v>
+        <v>0.09030827196239749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1081056728286976</v>
+        <v>0.1294044706921527</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1076830202104314</v>
+        <v>0.0916945882444718</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1008711294704305</v>
+        <v>0.09528145816510868</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06916031738088568</v>
+        <v>0.08690747919368078</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09967003606021081</v>
+        <v>0.08706774496672512</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09081447106921321</v>
+        <v>0.07608414186051884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08561594628337066</v>
+        <v>0.07909112961680467</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0844923979871654</v>
+        <v>0.1069403891494785</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08579835974337945</v>
+        <v>0.08265592037043672</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09801275446057833</v>
+        <v>0.08433582120750328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.122831739668439</v>
+        <v>0.1135976822516489</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1033370366309973</v>
+        <v>0.0947487739723079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09463832420873258</v>
+        <v>0.0826762860677909</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09026456433115808</v>
+        <v>0.04761459033198126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09727996624527721</v>
+        <v>0.08087228304790736</v>
       </c>
     </row>
     <row r="24">
@@ -955,41 +955,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06273777771136614</v>
+        <v>0.06726144766835716</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03675431479636</v>
+        <v>0.0484782452062341</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04072500298292678</v>
+        <v>0.05305052010031339</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02396877607024592</v>
+        <v>0.0382703181073943</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09067765692733686</v>
+        <v>0.07895059014418875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06270131713328179</v>
+        <v>0.0867796497025273</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0817800975579614</v>
+        <v>0.07398351594525072</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09719225082911367</v>
+        <v>0.07212472162191419</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06485640340092313</v>
+        <v>0.06710001877747698</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07439043438373745</v>
+        <v>0.07894591774593798</v>
       </c>
     </row>
     <row r="26">
@@ -999,19 +999,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03287563867555279</v>
+        <v>0.03433833711104484</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03893281544697928</v>
+        <v>0.05152972004987799</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06809333765051116</v>
+        <v>0.08329786364857453</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04494174660998513</v>
+        <v>0.05788044905128283</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05348145964224942</v>
+        <v>0.06708130444236801</v>
       </c>
     </row>
     <row r="27">
@@ -1021,19 +1021,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08144244646203998</v>
+        <v>0.07101051468977358</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08155725567835695</v>
+        <v>0.06034847932379625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05795108446666476</v>
+        <v>0.06401389372976368</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09212571824736907</v>
+        <v>0.09847739894255034</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03650794864429052</v>
+        <v>0.04586050424353812</v>
       </c>
     </row>
   </sheetData>
@@ -1134,45 +1134,45 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5714177951065151</v>
+        <v>0.3470442478906396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5811318271397423</v>
+        <v>0.3562289548798546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5710031349769085</v>
+        <v>0.3634497472011463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5800575331675619</v>
+        <v>0.3771689108509131</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5806083861743028</v>
+        <v>0.3698480507431848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3470442478906396</v>
+        <v>0.5714177951065151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3562289548798546</v>
+        <v>0.5811318271397423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3634497472011463</v>
+        <v>0.5710031349769085</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3771689108509131</v>
+        <v>0.5800575331675619</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3698480507431848</v>
+        <v>0.5806083861743028</v>
       </c>
     </row>
     <row r="6">
@@ -1200,45 +1200,45 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2483546094142673</v>
+        <v>0.1917984256694742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2716517373778369</v>
+        <v>0.2460301172264883</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2887539050765065</v>
+        <v>0.256483798583645</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3148228103922021</v>
+        <v>0.2746279052524504</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3009453512377193</v>
+        <v>0.2654785339798594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1917984256694742</v>
+        <v>0.2483546094142673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2460301172264883</v>
+        <v>0.2716517373778369</v>
       </c>
       <c r="D8" t="n">
-        <v>0.256483798583645</v>
+        <v>0.2887539050765065</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2746279052524504</v>
+        <v>0.3148228103922021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2654785339798594</v>
+        <v>0.3009453512377193</v>
       </c>
     </row>
     <row r="9">
@@ -1288,89 +1288,89 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.134103906978947</v>
+        <v>0.1461573291697135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1434790258508534</v>
+        <v>0.1613939461851608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1439142087935501</v>
+        <v>0.1599330166707623</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1583715852104621</v>
+        <v>0.1716010390358467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.154627086265484</v>
+        <v>0.1651938915441625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1461573291697135</v>
+        <v>0.1513555392403292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1613939461851608</v>
+        <v>0.180442637958108</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1599330166707623</v>
+        <v>0.1750709133268289</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1716010390358467</v>
+        <v>0.1702358189446339</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1651938915441625</v>
+        <v>0.1648320545642537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1513555392403292</v>
+        <v>0.2263027039146885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.180442637958108</v>
+        <v>0.2628284728733447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1750709133268289</v>
+        <v>0.2375824240147325</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1702358189446339</v>
+        <v>0.2521019390263843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1648320545642537</v>
+        <v>0.2411997387957061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2263027039146885</v>
+        <v>0.134103906978947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2628284728733447</v>
+        <v>0.1434790258508534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2375824240147325</v>
+        <v>0.1439142087935501</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2521019390263843</v>
+        <v>0.1583715852104621</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2411997387957061</v>
+        <v>0.154627086265484</v>
       </c>
     </row>
     <row r="15">
@@ -1508,67 +1508,67 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.07368744171907873</v>
+        <v>0.1040451581266509</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06240397750980722</v>
+        <v>0.1102111810531471</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05966533822367974</v>
+        <v>0.105618641019129</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06018361724532328</v>
+        <v>0.103659164993257</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05670728441782964</v>
+        <v>0.09980797480406939</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1030794394028244</v>
+        <v>0.04693963238947893</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0934677424748554</v>
+        <v>0.0596871911131881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1071218773810335</v>
+        <v>0.06377543182279762</v>
       </c>
       <c r="E22" t="n">
-        <v>0.118812872769798</v>
+        <v>0.06595328772703485</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1121209986618808</v>
+        <v>0.0633010892218285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1040451581266509</v>
+        <v>0.07368744171907873</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1102111810531471</v>
+        <v>0.06240397750980722</v>
       </c>
       <c r="D23" t="n">
-        <v>0.105618641019129</v>
+        <v>0.05966533822367974</v>
       </c>
       <c r="E23" t="n">
-        <v>0.103659164993257</v>
+        <v>0.06018361724532328</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09980797480406939</v>
+        <v>0.05670728441782964</v>
       </c>
     </row>
     <row r="24">
@@ -1596,23 +1596,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04693963238947893</v>
+        <v>0.1030794394028244</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0596871911131881</v>
+        <v>0.0934677424748554</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06377543182279762</v>
+        <v>0.1071218773810335</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06595328772703485</v>
+        <v>0.118812872769798</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0633010892218285</v>
+        <v>0.1121209986618808</v>
       </c>
     </row>
     <row r="26">
@@ -1717,19 +1717,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5130139373316597</v>
+        <v>0.5134899840058246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.557780660271624</v>
+        <v>0.5037460195825695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5928806666370157</v>
+        <v>0.5725771119541434</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6078494330870032</v>
+        <v>0.6096209625114354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6244048392880159</v>
+        <v>0.5872162676567871</v>
       </c>
     </row>
     <row r="3">
@@ -1739,63 +1739,63 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6033776214964321</v>
+        <v>0.6888650900693949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6423127127305897</v>
+        <v>0.7230183272663079</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6632455291171597</v>
+        <v>0.6740422614104451</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6661702626405716</v>
+        <v>0.6283391500246872</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6707964798247746</v>
+        <v>0.6219505113236412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6155133456908649</v>
+        <v>0.4882120888650215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4449118607647328</v>
+        <v>0.5009827091806566</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4510369703957297</v>
+        <v>0.453857583731875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4782386339760097</v>
+        <v>0.5104133410579369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4661843864930836</v>
+        <v>0.4911067689154855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4298267070741489</v>
+        <v>0.5381357256772411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4359991159015109</v>
+        <v>0.3846558070649743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4309567150195159</v>
+        <v>0.4035795410167007</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4289355121302637</v>
+        <v>0.4302483705990846</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4432336477110554</v>
+        <v>0.4020048749000441</v>
       </c>
     </row>
     <row r="6">
@@ -1805,63 +1805,63 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2963794319163224</v>
+        <v>0.4368821857546268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3237964765338029</v>
+        <v>0.433938356249462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3462732419075667</v>
+        <v>0.4535852622030093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3585776182579102</v>
+        <v>0.4658757706851003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3739444521038293</v>
+        <v>0.4591593392597523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2415906957999803</v>
+        <v>0.3241071640393364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.270901140721892</v>
+        <v>0.3228047878215993</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2838496005153557</v>
+        <v>0.371340377963021</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2970806529920383</v>
+        <v>0.377373932035197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3061988298899165</v>
+        <v>0.4219623484625818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2293656487288516</v>
+        <v>0.3520743804545954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.249205355190531</v>
+        <v>0.3593856202396211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2568247073943444</v>
+        <v>0.3587534169066519</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2680896179373436</v>
+        <v>0.3836194276282582</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2842593478008498</v>
+        <v>0.3929084305777756</v>
       </c>
     </row>
     <row r="9">
@@ -1871,19 +1871,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2284886904166038</v>
+        <v>0.2682753989710757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2344652469963039</v>
+        <v>0.2604786253212875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2408747432457856</v>
+        <v>0.2920772317407778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2348269367198668</v>
+        <v>0.265896518124665</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2328974987547939</v>
+        <v>0.2554525039474852</v>
       </c>
     </row>
     <row r="10">
@@ -1893,107 +1893,107 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1875642565089438</v>
+        <v>0.3190158592846425</v>
       </c>
       <c r="C10" t="n">
-        <v>0.207426541240306</v>
+        <v>0.3463849838873891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2364868828849896</v>
+        <v>0.3460937652443925</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2450023030566972</v>
+        <v>0.358027624268732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2536642633073213</v>
+        <v>0.314614240408436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09971763900361041</v>
+        <v>0.2432854478938479</v>
       </c>
       <c r="C11" t="n">
-        <v>0.118076093953035</v>
+        <v>0.2328961377918167</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1188784974083789</v>
+        <v>0.2301624112932333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1249669939617657</v>
+        <v>0.3108787686061701</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1245250583380787</v>
+        <v>0.2950122813301838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08682777411277925</v>
+        <v>0.2403178966386996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08363889831202204</v>
+        <v>0.2787330237929309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08631433388532694</v>
+        <v>0.2648284375829127</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09070755641427738</v>
+        <v>0.2438191421744522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09331294971338785</v>
+        <v>0.2628390079208717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09664721985742518</v>
+        <v>0.2937077899396159</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1023825882775792</v>
+        <v>0.306431440012353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09552421776393485</v>
+        <v>0.2752751165781211</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09295060678628093</v>
+        <v>0.2954842055900618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09410972811636263</v>
+        <v>0.3254241327108658</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.144641252987391</v>
+        <v>0.2186047645362588</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1587983601469983</v>
+        <v>0.2409101224996138</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1591584915735528</v>
+        <v>0.2437569678044617</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1724008815702131</v>
+        <v>0.2631277680068808</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1808626848932369</v>
+        <v>0.2504330324021851</v>
       </c>
     </row>
     <row r="15">
@@ -2003,19 +2003,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1449856136316815</v>
+        <v>0.2957103586141738</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1461771682191264</v>
+        <v>0.3130769275571403</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1453435200631885</v>
+        <v>0.274659764439663</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1697043218547385</v>
+        <v>0.2895518430276563</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1749309178050708</v>
+        <v>0.2969031155045855</v>
       </c>
     </row>
     <row r="16">
@@ -2025,19 +2025,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1048860317897672</v>
+        <v>0.1967982554529537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11058545066147</v>
+        <v>0.1966978295003159</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1195830398050565</v>
+        <v>0.2184042019024846</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1110645386265716</v>
+        <v>0.2333013327342617</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1142782057810656</v>
+        <v>0.2514041620137882</v>
       </c>
     </row>
     <row r="17">
@@ -2047,19 +2047,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1404671420229141</v>
+        <v>0.2311239772873928</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1510462144457244</v>
+        <v>0.2274220358363097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1638853425664582</v>
+        <v>0.2553754956367181</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1747501976091011</v>
+        <v>0.2495037346556847</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1852564641930094</v>
+        <v>0.2923236492959747</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.124078371999944</v>
+        <v>0.1993946676789066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1391050702650929</v>
+        <v>0.195934401317839</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1468478549767779</v>
+        <v>0.2345738273843766</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1464202462998227</v>
+        <v>0.2521681337139065</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514696519103335</v>
+        <v>0.2685254060860029</v>
       </c>
     </row>
     <row r="19">
@@ -2091,19 +2091,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06905406684803576</v>
+        <v>0.1688566704137535</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0803087311190268</v>
+        <v>0.1633140122198834</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07703706935600252</v>
+        <v>0.1817810389200525</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07571533188440191</v>
+        <v>0.1805408788576917</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07784510107263228</v>
+        <v>0.2380921591358154</v>
       </c>
     </row>
     <row r="20">
@@ -2113,85 +2113,85 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1133117709914241</v>
+        <v>0.1551396454047305</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1062884505651853</v>
+        <v>0.1520852650885547</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09846692202411458</v>
+        <v>0.1448614790793984</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1028949416833612</v>
+        <v>0.1479504587605774</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1067617562504612</v>
+        <v>0.1863210903832127</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09193620965276181</v>
+        <v>0.1905565213953538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09474297526758485</v>
+        <v>0.188308300139323</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09710485674904715</v>
+        <v>0.2084282657333662</v>
       </c>
       <c r="E21" t="n">
-        <v>0.100123810884981</v>
+        <v>0.1976910108704951</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1035549590905581</v>
+        <v>0.2172622920216261</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1109389017216369</v>
+        <v>0.1746585178780937</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1092550031218492</v>
+        <v>0.1709679850283091</v>
       </c>
       <c r="D22" t="n">
-        <v>0.107067190411116</v>
+        <v>0.1761263220660307</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1145354169458694</v>
+        <v>0.1925231894023174</v>
       </c>
       <c r="F22" t="n">
-        <v>0.116351442827937</v>
+        <v>0.2029103374769191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09097170458411039</v>
+        <v>0.1906715944283059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09920024617378356</v>
+        <v>0.1816063622103069</v>
       </c>
       <c r="D23" t="n">
-        <v>0.112480144627023</v>
+        <v>0.1540639486167727</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1097461270951172</v>
+        <v>0.1543036275795984</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1179167991761803</v>
+        <v>0.1924371721678751</v>
       </c>
     </row>
     <row r="24">
@@ -2201,41 +2201,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06627928670893073</v>
+        <v>0.1635303124400373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06884411055315458</v>
+        <v>0.2085172140230011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07546217954144741</v>
+        <v>0.2010161744470088</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07173842416096926</v>
+        <v>0.2042583752646228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07083626670937462</v>
+        <v>0.1798597941896285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05791680748897535</v>
+        <v>0.192062529962391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05999287610147373</v>
+        <v>0.1972040506604978</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05866280915655794</v>
+        <v>0.1767345151388109</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05243500699329534</v>
+        <v>0.1713591302262996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05358350248414061</v>
+        <v>0.2015813202261508</v>
       </c>
     </row>
     <row r="26">
@@ -2245,19 +2245,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03310623487700874</v>
+        <v>0.121192149490803</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03460108679365881</v>
+        <v>0.1791535355139042</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04080114442991001</v>
+        <v>0.1723658091099968</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0376631847069996</v>
+        <v>0.1713180501629382</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04182493972136032</v>
+        <v>0.2006869431328213</v>
       </c>
     </row>
     <row r="27">
@@ -2267,19 +2267,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.08595894997604092</v>
+        <v>0.1492174539352513</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09362887674834292</v>
+        <v>0.1628007209271646</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08090811134011439</v>
+        <v>0.1920313911094589</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07220094993601678</v>
+        <v>0.1849816957178829</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07530331872808903</v>
+        <v>0.2191489305366227</v>
       </c>
     </row>
   </sheetData>
@@ -2380,45 +2380,45 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4516425625696308</v>
+        <v>0.5173372657282869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5344912017508923</v>
+        <v>0.5227808053198825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4327325238048993</v>
+        <v>0.5382943019943094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4172040643040599</v>
+        <v>0.5398371928347067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5504418742693337</v>
+        <v>0.5743994078164147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5173372657282869</v>
+        <v>0.4516425625696308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5227808053198825</v>
+        <v>0.5344912017508923</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5382943019943094</v>
+        <v>0.4327325238048993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5398371928347067</v>
+        <v>0.4172040643040599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5743994078164147</v>
+        <v>0.5504418742693337</v>
       </c>
     </row>
     <row r="6">
@@ -2446,45 +2446,45 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2250441554803354</v>
+        <v>0.2681684852762443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2505211954515042</v>
+        <v>0.2876526244744687</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2451280909814365</v>
+        <v>0.3022015652782974</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2685075541104832</v>
+        <v>0.3067411637653593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3427726842700159</v>
+        <v>0.3519108640043744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2681684852762443</v>
+        <v>0.2250441554803354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2876526244744687</v>
+        <v>0.2505211954515042</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3022015652782974</v>
+        <v>0.2451280909814365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3067411637653593</v>
+        <v>0.2685075541104832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3519108640043744</v>
+        <v>0.3427726842700159</v>
       </c>
     </row>
     <row r="9">
@@ -2534,89 +2534,89 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1356272186841673</v>
+        <v>0.1661803542787745</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1481041574204012</v>
+        <v>0.1721640372376562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1610883725436904</v>
+        <v>0.2010606433945219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1628396263629424</v>
+        <v>0.2086630365120206</v>
       </c>
       <c r="F11" t="n">
-        <v>0.29939332815417</v>
+        <v>0.2947264777393634</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1661803542787745</v>
+        <v>0.2298992955008911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1721640372376562</v>
+        <v>0.2543754709575048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2010606433945219</v>
+        <v>0.2414625096157617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2086630365120206</v>
+        <v>0.2600731912630929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2947264777393634</v>
+        <v>0.2764817518094559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2298992955008911</v>
+        <v>0.2332845533857631</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2543754709575048</v>
+        <v>0.2436527388546064</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2414625096157617</v>
+        <v>0.2444482383412018</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2600731912630929</v>
+        <v>0.244675420390112</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2764817518094559</v>
+        <v>0.1379986907833738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2332845533857631</v>
+        <v>0.1356272186841673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2436527388546064</v>
+        <v>0.1481041574204012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2444482383412018</v>
+        <v>0.1610883725436904</v>
       </c>
       <c r="E14" t="n">
-        <v>0.244675420390112</v>
+        <v>0.1628396263629424</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1379986907833738</v>
+        <v>0.29939332815417</v>
       </c>
     </row>
     <row r="15">
@@ -2754,67 +2754,67 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09199259485843485</v>
+        <v>0.1179313584453402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09503439769328684</v>
+        <v>0.126162456631184</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09231696293733714</v>
+        <v>0.1243283443977879</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09482283317658395</v>
+        <v>0.1184046779208184</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06883420815024542</v>
+        <v>0.07642202417047067</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07708852541619216</v>
+        <v>0.07568794128449109</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08434829183073428</v>
+        <v>0.08681688336085944</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08112037407349584</v>
+        <v>0.09206999572652932</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08172600919654976</v>
+        <v>0.09510827074339467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0531084364471541</v>
+        <v>0.05470414523007737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1179313584453402</v>
+        <v>0.09199259485843485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.126162456631184</v>
+        <v>0.09503439769328684</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1243283443977879</v>
+        <v>0.09231696293733714</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1184046779208184</v>
+        <v>0.09482283317658395</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07642202417047067</v>
+        <v>0.06883420815024542</v>
       </c>
     </row>
     <row r="24">
@@ -2842,23 +2842,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07568794128449109</v>
+        <v>0.07708852541619216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08681688336085944</v>
+        <v>0.08434829183073428</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09206999572652932</v>
+        <v>0.08112037407349584</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09510827074339467</v>
+        <v>0.08172600919654976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05470414523007737</v>
+        <v>0.0531084364471541</v>
       </c>
     </row>
     <row r="26">
@@ -3003,45 +3003,45 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6083535656512651</v>
+        <v>0.7229700275212145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5639940805044593</v>
+        <v>0.764222730827915</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4323634061279186</v>
+        <v>0.8063298739299934</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5146965376440761</v>
+        <v>0.7770418203908597</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5179709782876349</v>
+        <v>0.8139629076886995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7229700275212145</v>
+        <v>0.6083535656512651</v>
       </c>
       <c r="C5" t="n">
-        <v>0.764222730827915</v>
+        <v>0.5639940805044593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8063298739299934</v>
+        <v>0.4323634061279186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7770418203908597</v>
+        <v>0.5146965376440761</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8139629076886995</v>
+        <v>0.5179709782876349</v>
       </c>
     </row>
     <row r="6">
@@ -3069,45 +3069,45 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4960027573364106</v>
+        <v>0.5004030558248088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4611438003118015</v>
+        <v>0.5032609923338567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4460555572638646</v>
+        <v>0.4189852892953844</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5376166939559188</v>
+        <v>0.4527263656684593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4955296609642035</v>
+        <v>0.4708592421711889</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5004030558248088</v>
+        <v>0.4960027573364106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5032609923338567</v>
+        <v>0.4611438003118015</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4189852892953844</v>
+        <v>0.4460555572638646</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4527263656684593</v>
+        <v>0.5376166939559188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4708592421711889</v>
+        <v>0.4955296609642035</v>
       </c>
     </row>
     <row r="9">
@@ -3157,89 +3157,89 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4698912604210114</v>
+        <v>0.4645290800083705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3758975798486202</v>
+        <v>0.4068962578954845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3353255477622917</v>
+        <v>0.3611843762355573</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4013576526007532</v>
+        <v>0.4301538189154432</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3941911643945437</v>
+        <v>0.4091937809502235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4645290800083705</v>
+        <v>0.433070438019136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4068962578954845</v>
+        <v>0.4489021191771135</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3611843762355573</v>
+        <v>0.3579619267374257</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4301538189154432</v>
+        <v>0.3933837675121895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4091937809502235</v>
+        <v>0.4169150580054662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.433070438019136</v>
+        <v>0.4498550369183532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4489021191771135</v>
+        <v>0.4648323454184969</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3579619267374257</v>
+        <v>0.4105365140424576</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3933837675121895</v>
+        <v>0.3036152087924798</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4169150580054662</v>
+        <v>0.3891109453270563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4498550369183532</v>
+        <v>0.4698912604210114</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4648323454184969</v>
+        <v>0.3758975798486202</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4105365140424576</v>
+        <v>0.3353255477622917</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3036152087924798</v>
+        <v>0.4013576526007532</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3891109453270563</v>
+        <v>0.3941911643945437</v>
       </c>
     </row>
     <row r="15">
@@ -3377,67 +3377,67 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4307382891960986</v>
+        <v>0.3931232256459399</v>
       </c>
       <c r="C21" t="n">
-        <v>0.444654539802533</v>
+        <v>0.3046719969328665</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4016224726633369</v>
+        <v>0.2376040160932698</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3588471022523759</v>
+        <v>0.3369109416327902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4127085341008706</v>
+        <v>0.2964818222308048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3247499239258289</v>
+        <v>0.3906366413920846</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3268683120463782</v>
+        <v>0.4260765133361441</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2898879464699721</v>
+        <v>0.4452648891197174</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3543243818847692</v>
+        <v>0.3918033869901675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3278162159235759</v>
+        <v>0.4174751617128766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3931232256459399</v>
+        <v>0.4307382891960986</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3046719969328665</v>
+        <v>0.444654539802533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2376040160932698</v>
+        <v>0.4016224726633369</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3369109416327902</v>
+        <v>0.3588471022523759</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2964818222308048</v>
+        <v>0.4127085341008706</v>
       </c>
     </row>
     <row r="24">
@@ -3465,23 +3465,23 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3906366413920846</v>
+        <v>0.3247499239258289</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4260765133361441</v>
+        <v>0.3268683120463782</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4452648891197174</v>
+        <v>0.2898879464699721</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3918033869901675</v>
+        <v>0.3543243818847692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4174751617128766</v>
+        <v>0.3278162159235759</v>
       </c>
     </row>
     <row r="26">
